--- a/outputs/R_OUT - 2024 BS and PRS DNA subsample choice - NEW SUBMISSION 2.xlsx
+++ b/outputs/R_OUT - 2024 BS and PRS DNA subsample choice - NEW SUBMISSION 2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t xml:space="preserve">Date (YY-MM-DD)</t>
   </si>
@@ -297,10 +297,10 @@
     <t xml:space="preserve">long</t>
   </si>
   <si>
-    <t xml:space="preserve">f2ca3bcb-d2f1-498d-b008-c83f4353fc52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4e1ea5db-0cc8-411b-b017-4d4f428a10a6</t>
+    <t xml:space="preserve">653eb630-f9f7-41d0-bdb3-30ac227f2532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31d74456-e671-4a06-bc4d-dc85b59a6c29</t>
   </si>
   <si>
     <t xml:space="preserve">jonat192@gmail.com</t>
@@ -321,42 +321,6 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">SJ24-PRS241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c70ddd18-6c03-4ba9-8d49-d881b26581aa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSJ-PRS1 PRCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c(-124.422523190777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5566281224973)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5566281224973,-124.422523190777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47fd4046-904e-4d01-a903-f1097b34c158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SJ24-PRS238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">866af2b2-38f8-4501-bca1-ebc2fe4ed853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SJ24-PRS244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">653eb630-f9f7-41d0-bdb3-30ac227f2532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31d74456-e671-4a06-bc4d-dc85b59a6c29</t>
-  </si>
-  <si>
     <t xml:space="preserve">SJ24-PRS260</t>
   </si>
   <si>
@@ -375,19 +339,19 @@
     <t xml:space="preserve">48.5542309711795,-124.468695215884</t>
   </si>
   <si>
-    <t xml:space="preserve">4d1b64b5-63ec-4f06-af9b-291fb0678776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SJ24-PRS262</t>
-  </si>
-  <si>
     <t xml:space="preserve">b64987f6-a472-47a0-aac7-6322ba4c2c69</t>
   </si>
   <si>
     <t xml:space="preserve">SJ24-PRS259</t>
   </si>
   <si>
-    <t xml:space="preserve">bd8a2a63-d285-4718-8af7-a03f9a724071</t>
+    <t xml:space="preserve">78eae8c0-2a4f-4070-a340-7f0b09e5d527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SJ24-PRS263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fc50d177-458d-4ef2-a7ba-e3d91cb1670f</t>
   </si>
   <si>
     <t xml:space="preserve">f6d0e2e9-4c30-407f-8472-283d5b6b2e62</t>
@@ -396,7 +360,10 @@
     <t xml:space="preserve">katie.davidson92@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">SJ24m-PRS437</t>
+    <t xml:space="preserve">SJ24m-PRS443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White eye</t>
   </si>
   <si>
     <t xml:space="preserve">05d95961-5a09-411a-b421-dfc2f3aca763</t>
@@ -414,10 +381,73 @@
     <t xml:space="preserve">48.550354073192,-124.458026823492</t>
   </si>
   <si>
-    <t xml:space="preserve">32777f66-cc43-4f8d-8d97-ad796890c91e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SJ24m-PRS438</t>
+    <t xml:space="preserve">fd6dda2b-ae27-43f4-bad1-77c0b637f2a9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SJ24m-PRS446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sea lice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">db721f37-fddc-42e3-be16-8f99f67a833c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0af41fdf-0e95-4576-8c2d-2eafd6950dad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinook 30 SJ24-PRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SJ24-PRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:24:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vials got offset here. Next sample is good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dceebb1a-3f7d-4ea0-b553-c0ae5910bde0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSJ-PRS4 Jap Rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c(-124.442797713701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.5632942288488)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.5632942288488,-124.442797713701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f1a3e1fa-113b-4500-8f2e-d36c9d59ba09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinook 132 Sj24-prs294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SJ24-PRS294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:34:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3e951c73-45a1-4710-a9de-215fce2d362f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinook 124 SJ24-PRS288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SJ24-PRS288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parasites</t>
   </si>
 </sst>
 </file>
@@ -2346,13 +2376,13 @@
         <v>95</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45488.7197222222</v>
+        <v>45488.828599537</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>45488</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>45489.6040972222</v>
+        <v>45489.6053703704</v>
       </c>
       <c r="F2" t="s">
         <v>96</v>
@@ -2375,10 +2405,10 @@
         <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="O2" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
@@ -2413,10 +2443,10 @@
         <v>104</v>
       </c>
       <c r="AJ2" t="n">
-        <v>5379147</v>
+        <v>5378945</v>
       </c>
       <c r="AK2" t="n">
-        <v>395034</v>
+        <v>391622</v>
       </c>
       <c r="AL2" t="s">
         <v>105</v>
@@ -2436,13 +2466,13 @@
         <v>95</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45488.7145949074</v>
+        <v>45488.8275115741</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>45488</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>45489.6040162037</v>
+        <v>45489.6053472222</v>
       </c>
       <c r="F3" t="s">
         <v>96</v>
@@ -2465,10 +2495,10 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="O3" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
@@ -2503,10 +2533,10 @@
         <v>104</v>
       </c>
       <c r="AJ3" t="n">
-        <v>5379147</v>
+        <v>5378945</v>
       </c>
       <c r="AK3" t="n">
-        <v>395034</v>
+        <v>391622</v>
       </c>
       <c r="AL3" t="s">
         <v>105</v>
@@ -2526,13 +2556,13 @@
         <v>95</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45488.7231018519</v>
+        <v>45488.8316435185</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>45488</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>45489.6040856481</v>
+        <v>45489.6055787037</v>
       </c>
       <c r="F4" t="s">
         <v>96</v>
@@ -2555,10 +2585,10 @@
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="O4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
@@ -2593,10 +2623,10 @@
         <v>104</v>
       </c>
       <c r="AJ4" t="n">
-        <v>5379147</v>
+        <v>5378945</v>
       </c>
       <c r="AK4" t="n">
-        <v>395034</v>
+        <v>391622</v>
       </c>
       <c r="AL4" t="s">
         <v>105</v>
@@ -2616,20 +2646,18 @@
         <v>113</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45488.828599537</v>
+        <v>45538.7986342593</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>45488</v>
+        <v>45538</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>45489.6053703704</v>
+        <v>45539.137337963</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" t="s">
-        <v>97</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G5"/>
       <c r="H5" t="s">
         <v>97</v>
       </c>
@@ -2645,24 +2673,28 @@
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="O5" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
         <v>101</v>
       </c>
       <c r="R5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="S5"/>
       <c r="T5"/>
-      <c r="U5"/>
+      <c r="U5" t="s">
+        <v>116</v>
+      </c>
       <c r="V5"/>
       <c r="W5"/>
-      <c r="X5"/>
+      <c r="X5" t="s">
+        <v>99</v>
+      </c>
       <c r="Y5"/>
       <c r="Z5"/>
       <c r="AA5"/>
@@ -2674,52 +2706,50 @@
       <c r="AE5"/>
       <c r="AF5"/>
       <c r="AG5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AH5" s="1" t="n">
-        <v>45488</v>
+        <v>45538</v>
       </c>
       <c r="AI5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5378945</v>
+        <v>5378499</v>
       </c>
       <c r="AK5" t="n">
-        <v>391622</v>
+        <v>392401</v>
       </c>
       <c r="AL5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AM5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AN5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
         <v>113</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45488.8308680556</v>
+        <v>45538.8014930556</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>45488</v>
+        <v>45538</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>45489.6054282407</v>
+        <v>45539.1373842593</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" t="s">
-        <v>97</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G6"/>
       <c r="H6" t="s">
         <v>97</v>
       </c>
@@ -2735,24 +2765,28 @@
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="O6" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
         <v>101</v>
       </c>
       <c r="R6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="S6"/>
       <c r="T6"/>
-      <c r="U6"/>
+      <c r="U6" t="s">
+        <v>124</v>
+      </c>
       <c r="V6"/>
       <c r="W6"/>
-      <c r="X6"/>
+      <c r="X6" t="s">
+        <v>99</v>
+      </c>
       <c r="Y6"/>
       <c r="Z6"/>
       <c r="AA6"/>
@@ -2764,51 +2798,51 @@
       <c r="AE6"/>
       <c r="AF6"/>
       <c r="AG6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AH6" s="1" t="n">
-        <v>45488</v>
+        <v>45538</v>
       </c>
       <c r="AI6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AJ6" t="n">
-        <v>5378945</v>
+        <v>5378499</v>
       </c>
       <c r="AK6" t="n">
-        <v>391622</v>
+        <v>392401</v>
       </c>
       <c r="AL6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AM6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AN6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45488.8275115741</v>
+        <v>45530.8521643518</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>45488</v>
+        <v>45530</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>45489.6053472222</v>
+        <v>45530.983125</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="H7" t="s">
         <v>97</v>
@@ -2825,24 +2859,30 @@
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="O7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
         <v>101</v>
       </c>
       <c r="R7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="S7"/>
-      <c r="T7"/>
+      <c r="T7" t="s">
+        <v>129</v>
+      </c>
       <c r="U7"/>
       <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
+      <c r="W7" t="s">
+        <v>130</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
       <c r="Y7"/>
       <c r="Z7"/>
       <c r="AA7"/>
@@ -2854,50 +2894,52 @@
       <c r="AE7"/>
       <c r="AF7"/>
       <c r="AG7" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="AH7" s="1" t="n">
-        <v>45488</v>
+        <v>45530</v>
       </c>
       <c r="AI7" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="AJ7" t="n">
-        <v>5378945</v>
+        <v>5379916</v>
       </c>
       <c r="AK7" t="n">
-        <v>391622</v>
+        <v>393552</v>
       </c>
       <c r="AL7" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="AM7" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="AN7" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45538.7905671296</v>
+        <v>45530.8575925926</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>45538</v>
+        <v>45530</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>45539.1372337963</v>
+        <v>45530.9831944444</v>
       </c>
       <c r="F8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G8"/>
+        <v>114</v>
+      </c>
+      <c r="G8" t="s">
+        <v>137</v>
+      </c>
       <c r="H8" t="s">
         <v>97</v>
       </c>
@@ -2913,22 +2955,26 @@
         <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O8" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
         <v>101</v>
       </c>
       <c r="R8" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="S8"/>
-      <c r="T8"/>
+      <c r="T8" t="s">
+        <v>139</v>
+      </c>
       <c r="U8"/>
-      <c r="V8"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
       <c r="W8"/>
       <c r="X8" t="s">
         <v>99</v>
@@ -2944,50 +2990,52 @@
       <c r="AE8"/>
       <c r="AF8"/>
       <c r="AG8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AH8" s="1" t="n">
-        <v>45538</v>
+        <v>45530</v>
       </c>
       <c r="AI8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5378499</v>
+        <v>5379916</v>
       </c>
       <c r="AK8" t="n">
-        <v>392401</v>
+        <v>393552</v>
       </c>
       <c r="AL8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AM8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AN8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45538.7919560185</v>
+        <v>45530.8457060185</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>45538</v>
+        <v>45530</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>45539.1372569444</v>
+        <v>45530.9830555556</v>
       </c>
       <c r="F9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G9"/>
+        <v>114</v>
+      </c>
+      <c r="G9" t="s">
+        <v>141</v>
+      </c>
       <c r="H9" t="s">
         <v>97</v>
       </c>
@@ -3003,21 +3051,27 @@
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="O9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
         <v>101</v>
       </c>
       <c r="R9" t="s">
-        <v>134</v>
-      </c>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
+        <v>142</v>
+      </c>
+      <c r="S9" t="s">
+        <v>142</v>
+      </c>
+      <c r="T9" t="s">
+        <v>143</v>
+      </c>
+      <c r="U9" t="s">
+        <v>144</v>
+      </c>
       <c r="V9"/>
       <c r="W9"/>
       <c r="X9" t="s">
@@ -3034,28 +3088,28 @@
       <c r="AE9"/>
       <c r="AF9"/>
       <c r="AG9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AH9" s="1" t="n">
-        <v>45538</v>
+        <v>45530</v>
       </c>
       <c r="AI9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5378499</v>
+        <v>5379916</v>
       </c>
       <c r="AK9" t="n">
-        <v>392401</v>
+        <v>393552</v>
       </c>
       <c r="AL9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AM9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AN9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
